--- a/data/trans_camb/IP1006-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1006-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,27 +795,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,14</t>
+          <t>0,0; 6,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,71</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,0</t>
+          <t>-4,47; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 4,85</t>
+          <t>-2,22; 4,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,96</t>
+          <t>-1,48; 1,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,18</t>
+          <t>-0,34; 1,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,41</t>
+          <t>-0,88; 0,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,74</t>
+          <t>-0,33; 0,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,77</t>
+          <t>-0,32; 0,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,76</t>
+          <t>-0,18; 0,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,43</t>
+          <t>-0,45; 0,43</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,04; 827,94</t>
+          <t>-65,78; 785,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,45; 577,91</t>
+          <t>-46,81; 866,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-88,75; 481,56</t>
+          <t>-83,59; 509,02</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,17 +1117,17 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,0</t>
+          <t>-1,51; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,0</t>
+          <t>-1,8; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,64</t>
+          <t>-0,32; 0,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,18</t>
+          <t>-0,13; 1,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,37</t>
+          <t>-0,59; 0,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,21</t>
+          <t>-0,69; 0,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,52</t>
+          <t>-0,54; 0,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,58</t>
+          <t>-0,19; 0,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 0,31</t>
+          <t>-0,32; 0,35</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,05; 1179,96</t>
+          <t>-53,21; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-84,57; 624,99</t>
+          <t>-90,0; 443,79</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 367,92</t>
+          <t>-47,17; 359,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-71,5; 196,19</t>
+          <t>-70,79; 242,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1006-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1006-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,91; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 4,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 1,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 2,65</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,4%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,8</t>
+          <t>-0,48; 0,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,65</t>
+          <t>-0,32; 0,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 0,0</t>
+          <t>-0,45; 1,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,55</t>
+          <t>-0,91; 0,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,98</t>
+          <t>-0,23; 0,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,89</t>
+          <t>-0,4; 0,44</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>104,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>87,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>-36,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>85,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,4%</t>
+          <t>-2,31%</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,18; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,78; 644,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,31; 427,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,39</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>-0,16</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,29</t>
+          <t>-1,79; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,4</t>
+          <t>-1,51; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,61</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 0,76</t>
+          <t>-0,32; 0,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,43</t>
+          <t>-0,79; 0,0</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>87,56%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-36,54%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>104,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>85,8%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,78; 785,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,19 +1047,19 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,81; 866,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-83,59; 509,02</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>-0,66; 0,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,0</t>
+          <t>-0,11; 1,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,0</t>
+          <t>-0,51; 0,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,66</t>
+          <t>-0,19; 0,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,0</t>
+          <t>-0,34; 0,35</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-48,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>170,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-7,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-1,89%</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,51; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,187 +1203,30 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,22; 383,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,34; 235,97</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 1,31</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 0,37</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 0,21</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 0,52</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 0,59</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 0,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>170,87%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-7,64%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-48,35%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>2,96%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>51,39%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-1,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-53,21; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-90,0; 443,79</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-47,17; 359,91</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-70,79; 242,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
